--- a/biology/Botanique/Gmelina_arborea/Gmelina_arborea.xlsx
+++ b/biology/Botanique/Gmelina_arborea/Gmelina_arborea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gmelina arborea est une espèce de plantes de la famille des Verbenaceae.
 Cet arbre à croissance rapide et à feuillage caduc, pousse naturellement dans la plus grande partie de l'Inde à des altitudes allant jusqu'à 1 500 mètres. Il est aussi naturellement présent en Birmanie, en Thaïlande, au Laos, au Cambodge, au Vietnam et dans les provinces du Sud de la Chine. Il a été planté de façon extensive au Sierra Leone, au Nigeria, en Malaisie, et sur une base expérimentale dans d'autres pays. Il est également planté en arbre d'ornement (jardins, avenues).
@@ -512,7 +524,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gmelina arborea est un arbre à croissance rapide poussant dans différents habitats. Il préfère les sols humides et fertiles de vallées avec un pluviométrie annuelle de 750–4 500 mm. 
 Il supporte mal les sols mal drainés et reste rabougri sur les sols secs, sablonneux ou pauvres. Il adopte la forme d'un arbuste si le climat est trop sec. Il peut atteindre une taille modérée à grande (jusqu'à 30 m pour un diamètre de 1,2 à 4 m). Son écorce se caractérise par une écorce externe recouvrant une couche chlorophyllienne, suivie d'une couche blanc jaunâtre à l'intérieur.
@@ -549,7 +563,9 @@
           <t>Distribution géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Gmelina arborea est le plus abondant dans les forêts mixtes de l'Ouest du Bengale, très répandu en Inde de l'est de la rivière Ravi aux contreforts himalayens, commun dans tout l'Assam et les régions voisines du nord du Bengale occidental, du sud du Bihar et de l'Odisha, sporadiquement présent dans le Sud et l'Ouest de l'Inde, et planté ailleurs à grande échelle.
 </t>
@@ -580,12 +596,14 @@
           <t>Utilisations technologiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son bois est relativement solide par rapport à son poids. Il est utilisé en construction, charpenterie de marine, menuiserie, ébénisterie, carrosserie, équipements de sport (ex: avirons), instruments de musique, etc. Il adapté à la réalisation de d'objets en bois courbé. Une fois traité, c'est un bois durable, assez résistant à la pourriture et aux termites. 
 Parmi les objets d'usage courant où ce bois est utilisé, citons : cadres d'image et d'ardoise, articles de tournage, dos de brosse, manches à balais, jouets, poignées d'outils (ciseaux, scies, tournevis, faucilles, etc.), coffres à thé, tableaux noirs, planches à dessin, tables planes, boîtes d'instruments, règles, prothèse de membres, poignées de raquettes de tennis, plateaux de jeux (ex. : carrom), caisses...
 Ses feuilles constituent un fourrage d'assez bonne qualité pour le bétail (protéine brute - 11,9 %) et sont également utilisées en sériciculture comme aliment pour le bombyx de l'ailante.
-Très blanches, les cendres de son bois entrent dans la composition de l'ocre blanc semi-solide utilisé en peinture rupestre, notamment dans certaines grottes ornées vieilles de 3 000 à 5 000 ans et plus, trouvées dans les forêts denses de Tamil Nadu[3].
+Très blanches, les cendres de son bois entrent dans la composition de l'ocre blanc semi-solide utilisé en peinture rupestre, notamment dans certaines grottes ornées vieilles de 3 000 à 5 000 ans et plus, trouvées dans les forêts denses de Tamil Nadu.
 </t>
         </is>
       </c>
@@ -614,7 +632,9 @@
           <t>Utilisations médicinales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La racine et l'écorce de Gmelina arborea sont réputées stomachiques, galactagogues, laxatives et anthelmintiques. En médecine ayurvédique, elles sont supposées ouvrir l’appétit, être utile dans l'hallucination, les douleurs abdominales, les sensations de brûlure, les fièvres, le tridosha et les écoulements urinaires. La pâte de feuilles est appliquée pour soulager les maux de tête et le jus est utilisé comme lavage pour les ulcères.
 Les fleurs sont douces, "rafraîchissantes", amères, acre et astringentes. Elles sont utilisées contre la lèpre et les maladies du sang.
@@ -649,11 +669,13 @@
           <t>Composition chimique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On a pu isoler dans son bois de cœur diverses sortes de lignanes telles que le 6“ - bromo - isoarboreol, le 4-hydroxysesamin, le 4,8-dihydroxysesamin, le 1,4-dihydroxysesamin (gummadiol), le 2-piperonyl-3-hydroxymethyl-4-(α-hydroxy-3,4-methylenedioxybenzyl)-4-hydroxytetrahydrofuran et le 4-O-glucoside de 4-epigummadiol[4]. Ce sont des composés proches de l'arboreol et de la gmelanone[5].
-L'Umbelliferone 7-apiosylglucoside a été isolé dans ses racines[6].
-Cinq molécules isolées dans son bois de cœur ont montré une activité antifongique contre Trametes versicolor : (+)-7′-O-ethyl arboreol, (+)-paulownin, (+)-gmelinol, (+)-epieudesmin et (−)-β-sitostérol[7].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On a pu isoler dans son bois de cœur diverses sortes de lignanes telles que le 6“ - bromo - isoarboreol, le 4-hydroxysesamin, le 4,8-dihydroxysesamin, le 1,4-dihydroxysesamin (gummadiol), le 2-piperonyl-3-hydroxymethyl-4-(α-hydroxy-3,4-methylenedioxybenzyl)-4-hydroxytetrahydrofuran et le 4-O-glucoside de 4-epigummadiol. Ce sont des composés proches de l'arboreol et de la gmelanone.
+L'Umbelliferone 7-apiosylglucoside a été isolé dans ses racines.
+Cinq molécules isolées dans son bois de cœur ont montré une activité antifongique contre Trametes versicolor : (+)-7′-O-ethyl arboreol, (+)-paulownin, (+)-gmelinol, (+)-epieudesmin et (−)-β-sitostérol.
 </t>
         </is>
       </c>
@@ -682,7 +704,9 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Gmelina arborea is appelé localement par différents noms en différentes langues :
 Langues indiennes :
@@ -710,7 +734,7 @@
 Filipino- yemane
 Indonésien- Jati putih
 Langues européennes :
-Anglais- beechwood, gmelina, goomar teak, Kashmir tree, Kashmir Teak, Malay beechwood, white teak, yemane[8]</t>
+Anglais- beechwood, gmelina, goomar teak, Kashmir tree, Kashmir Teak, Malay beechwood, white teak, yemane</t>
         </is>
       </c>
     </row>
